--- a/excel/instructors.xlsx
+++ b/excel/instructors.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -40,10 +40,28 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linkedin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinterest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yelp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Susan Bishop</t>
   </si>
   <si>
-    <t xml:space="preserve">11224573_10153012232983441_2682910220049179846_n</t>
+    <t xml:space="preserve">susan_bishop.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">susan.bishop@shrpr.co</t>
@@ -56,6 +74,70 @@
 Sue has been creative in many mediums throughout her life: ceramics, clay, enamel, and metal sculptures, and jewelry fabrication and design. In high school, Sue realized jewelry design, and teaching others to make jewelry was in her future. While attending Boston University's School of Artistry, she was offered and accepted a teaching position in the Adult Ed program for Basic and Advanced Jewelry Fabrication. 
 Sue had the opportunity to work along side well-known designers in the jewelry industry before embarking on managerial positions. She was responsible for overseeing the quality of workmanship for up to 15 jewelers and 3 designers at a time in her first retail environment. Sue thrived in the retail jewelry environment because of her extraordinary abilities and skills to communicate with customers. She will draw and fabricate or carve a wax simulation to meet or exceed a customer's expectation. 
 When asked what Sue likes most about working at Kasson Jewelers, she said: "I like Susan and Alan Kasson's warm honest approach to serving customers, and their integrity in running a successful jewelry business. And the artistic creative freedom to help customers bring their ideas to life and make their dreams come true."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etsy.com/dk-en/people/sbishop32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/GoodenowDesigns/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.linkedin.com/in/susan-bishop-446212a/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pinterest.com/suebee/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Zappala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">john_zappala.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">john.zappala@shrpr.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203.831.8283 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Zappala was formally educated in graphic design, fine arts and art education. He received an associate's degree from Farmingdale State University and a bachelor's degree from St. John's University.In the early 70's, he realized that photography was his calling and career path. He started out photographing weddings and portraits and soon expanded his photographic skills and client base to include product photography, special events and fashion. During the course of his career, he has worked for many fortune five hundred companies, including some of the world's biggest department stores. His portfolio includes dozens of the well-known celebrities and luminaries of our times. Presently, he is working for a select group of clients and is developing his own style of photographic art, which he sells in the form of greeting cards and poster size prints in book stores and independently owned shops throughout the country.John Zappala enjoys sharing his knowledge of photography and does so in the form of adult education classes and seminars which are held throughout the state of Connecticut.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.johnzappalaphotographer.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/John-Zappala-Photographer-1314438601946470/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.linkedin.com/in/john-zappala-51892963/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.yelp.com/biz/john-zappala-photographer-norwalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cecily Gans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cecily_gans.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cecily_Gans@shrpr.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203-296-2743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cecily Gans is the Executive Chef and owner of The Main Course Catering Company where, besides catering events, she designs cooking courses for individuals and groups of all ages and levels of experience.In July of 2013 she completed the certification in Holistic Health Counseling through the Institute for Integrative Nutrition which, in combination with her teaching and culinary background, she uses to help both individual and group clients reach their health and wellness goals through education in all aspects of diet choices and cooking. She is also pursuing a graduate degree in nutrition.      She is involved with and strongly advocates the farm-to-table movement, buying food locally, supporting area farmers markets and local food purveyors. Several times throughout each summer and fall she does demonstrations at the Westport Farmers Market, where she also serves on the Board of Directors, and prides herself on her relationships with the vendors there, both farmers and specialty food producers. She loves to share the recipes she develops and makes all of them available online, as she does for her high school students with her culinary curriculum. She also teaches courses via Westport Continuing Education from September – June in the kitchen/classroom at Staples. For several years, Cecily has merged these endeavors to produce made-from-scratch meals for Homes for Hope, an area homeless shelter, procuring the majority of her ingredients from the Westport Farmers Market, and designing and producing the meal with her students. Recently, she and her students won the MSG Varsity/Cablevision Charity Champions award for this project, providing funding to create food products to sell locally and raise more money for these meals.Prior to her time in Westport, she was teaching in New Bedford, Massachusetts at the Greater New Bedford Regional Vocational Technical High School and finishing her first graduate degree in teaching at Johnson &amp; Wales University. She also taught internship and advanced standing students at Johnson &amp; Wales University and served as a Teaching Assistant and Teaching Fellow prior to that while completing her B.S. in Culinary Arts (Summa Cum Laude, 1997). Throughout graduate school she was also a participant in the very selective Management Development Program, serving as both a chef instructor and manager at some of the university’s many properties. Throughout her time at Johnson &amp; Wales she was awarded Best Teaching Assistant, Best Teaching Fellow and Best Instructor. She also worked for several prestigious area restaurants and caterers, and was the Executive Chef/Owner of Pacifica Catering Company in Providence, catering events in Rhode Island, Massachusetts, New York and Connecticut.Cecily has been working in professional kitchens and restaurants since the age of 15 when she catered her first event and worked at one of the first sushi bars in New Haven, CT.  Since then, she has worked in catering, restaurants, hotels, institutional foodservices, training and consulting in Connecticut, Massachusetts, Rhode Island, New York and California.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.themaincoursecatering.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/TMCCatering/?ref=br_tf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/cecilyg9m</t>
   </si>
 </sst>
 </file>
@@ -149,7 +231,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -168,6 +250,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -248,21 +342,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:2"/>
+  <dimension ref="1:4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="71.9336734693878"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="42.8724489795918"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="50.7755102040816"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.6530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="59.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,31 +384,126 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>27903</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>27903</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>27903</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="susan.bishop@shrpr.co"/>
+    <hyperlink ref="C3" r:id="rId2" display="john.zappala@shrpr.co"/>
+    <hyperlink ref="G3" r:id="rId3" display="http://www"/>
+    <hyperlink ref="C4" r:id="rId4" display="Cecily_Gans@shrpr.co"/>
+    <hyperlink ref="G4" r:id="rId5" display="http://www.themaincoursecatering"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
